--- a/experiment_results/best_case/ExamDB/2wise/0.95_best_case.xlsx
+++ b/experiment_results/best_case/ExamDB/2wise/0.95_best_case.xlsx
@@ -875,7 +875,7 @@
         <v>85</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>220</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>220</v>
@@ -1195,7 +1195,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>220</v>
@@ -1611,7 +1611,7 @@
         <v>40</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>220</v>
@@ -1771,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>220</v>
@@ -2027,7 +2027,7 @@
         <v>40</v>
       </c>
       <c r="G47">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>220</v>
@@ -2091,7 +2091,7 @@
         <v>40</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H49">
         <v>220</v>
@@ -2123,7 +2123,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>220</v>
@@ -2552,7 +2552,7 @@
         <v>85</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>220</v>
@@ -2872,7 +2872,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>220</v>
@@ -3288,7 +3288,7 @@
         <v>40</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>220</v>
@@ -3704,7 +3704,7 @@
         <v>40</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>220</v>
@@ -3800,7 +3800,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>220</v>
@@ -4229,7 +4229,7 @@
         <v>85</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>220</v>
@@ -4549,7 +4549,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>220</v>
@@ -4709,7 +4709,7 @@
         <v>94</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>220</v>
@@ -4965,7 +4965,7 @@
         <v>40</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>220</v>
@@ -5477,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <v>220</v>
@@ -5906,7 +5906,7 @@
         <v>85</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>220</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>220</v>
@@ -6226,7 +6226,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>220</v>
@@ -6642,7 +6642,7 @@
         <v>40</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>220</v>
@@ -6802,7 +6802,7 @@
         <v>40</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>220</v>
@@ -7058,7 +7058,7 @@
         <v>40</v>
       </c>
       <c r="G47">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>220</v>
@@ -7122,7 +7122,7 @@
         <v>40</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H49">
         <v>220</v>
@@ -7154,7 +7154,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>220</v>
@@ -7583,7 +7583,7 @@
         <v>85</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>220</v>
@@ -7903,7 +7903,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H21">
         <v>220</v>
@@ -8319,7 +8319,7 @@
         <v>40</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H34">
         <v>220</v>
@@ -8735,7 +8735,7 @@
         <v>40</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>220</v>
@@ -8831,7 +8831,7 @@
         <v>40</v>
       </c>
       <c r="G50">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>220</v>
